--- a/自己紹介サイト作成/確認事項.xlsx
+++ b/自己紹介サイト作成/確認事項.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekimae2025_8\SZKDocument\MyTraining\自己紹介サイト作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173EDCEB-FF3D-4CBE-A7AC-ED67A87EC0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB1537D-7633-4FA9-AA0C-C8A5753F59A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3528" yWindow="456" windowWidth="18936" windowHeight="11268" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7632" yWindow="156" windowWidth="15396" windowHeight="12012" tabRatio="852" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="見出し" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
   <si>
     <t>h1</t>
   </si>
@@ -522,15 +522,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>113824</xdr:rowOff>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>121444</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -559,7 +559,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="236220" y="144780"/>
+          <a:off x="259080" y="381000"/>
           <a:ext cx="7239000" cy="15971044"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -571,16 +571,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>637680</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>73800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>138365</xdr:rowOff>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>123125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -609,7 +609,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8013840" y="144780"/>
+          <a:off x="8120520" y="358140"/>
           <a:ext cx="2257920" cy="24225185"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -888,7 +888,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C20" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1008,7 +1008,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB313B5-95C2-43E5-90AF-5AB46A2C2D85}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -1058,7 +1060,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="92.4">
-      <c r="A5" s="12"/>
+      <c r="A5" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="B5" s="12"/>
       <c r="C5" s="4" t="s">
         <v>20</v>
@@ -1068,7 +1072,9 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4">
-      <c r="A6" s="12"/>
+      <c r="A6" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="B6" s="12"/>
       <c r="C6" s="4" t="s">
         <v>22</v>
@@ -1088,7 +1094,9 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="12"/>
+      <c r="A8" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="B8" s="12"/>
       <c r="C8" s="4" t="s">
         <v>26</v>
@@ -1153,7 +1161,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F42F08-99D1-4374-9DCA-6528F6C2F17D}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -1169,14 +1179,18 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="12"/>
+      <c r="A2" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="B2" s="12"/>
       <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="B3" s="12"/>
       <c r="C3" s="2" t="s">
         <v>36</v>
@@ -1190,28 +1204,36 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="B5" s="12"/>
       <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="B6" s="12"/>
       <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="B7" s="12"/>
       <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="B8" s="12"/>
       <c r="C8" s="2" t="s">
         <v>41</v>
@@ -1232,7 +1254,9 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="B11" s="12"/>
       <c r="C11" s="2" t="s">
         <v>44</v>
@@ -1260,7 +1284,9 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="B15" s="12"/>
       <c r="C15" s="2" t="s">
         <v>48</v>
@@ -1318,7 +1344,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C103213-AA27-430A-95E4-A1F7A2A485DD}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -1328,7 +1356,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="B1" s="12"/>
       <c r="C1" s="3" t="s">
         <v>55</v>
@@ -1349,7 +1379,9 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8">
-      <c r="A4" s="12"/>
+      <c r="A4" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>58</v>
@@ -1428,7 +1460,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6066A1A-0E65-4F7B-8303-428444A42F39}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -1582,7 +1616,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB76DC89-3AF4-4E1B-800A-75F09BD2A2C9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>

--- a/自己紹介サイト作成/確認事項.xlsx
+++ b/自己紹介サイト作成/確認事項.xlsx
@@ -8,29 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekimae2025_8\SZKDocument\MyTraining\自己紹介サイト作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB1537D-7633-4FA9-AA0C-C8A5753F59A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88F4634-BFFD-49E5-AF83-B9394796D911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7632" yWindow="156" windowWidth="15396" windowHeight="12012" tabRatio="852" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7080" yWindow="876" windowWidth="15960" windowHeight="11052" tabRatio="852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="見出し" sheetId="1" r:id="rId1"/>
-    <sheet name="案件概要" sheetId="2" r:id="rId2"/>
-    <sheet name="社内コーディングルール" sheetId="3" r:id="rId3"/>
-    <sheet name="山口注釈" sheetId="4" r:id="rId4"/>
-    <sheet name="アドバイス(田中)" sheetId="5" r:id="rId5"/>
-    <sheet name="カンプ" sheetId="6" r:id="rId6"/>
+    <sheet name="工数" sheetId="7" r:id="rId1"/>
+    <sheet name="見出し" sheetId="1" r:id="rId2"/>
+    <sheet name="案件概要" sheetId="2" r:id="rId3"/>
+    <sheet name="社内コーディングルール" sheetId="3" r:id="rId4"/>
+    <sheet name="山口注釈" sheetId="4" r:id="rId5"/>
+    <sheet name="アドバイス(田中)" sheetId="5" r:id="rId6"/>
+    <sheet name="カンプ" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="100">
   <si>
     <t>h1</t>
   </si>
@@ -347,12 +359,68 @@
     <t>v</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>土</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>曜日</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自習</t>
+    <rPh sb="0" eb="2">
+      <t>ジシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>授業</t>
+    <rPh sb="0" eb="2">
+      <t>ジュギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,8 +458,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,8 +499,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -453,12 +548,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -499,6 +646,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="56" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="56" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -521,16 +679,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>121444</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>212884</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -559,7 +717,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="259080" y="381000"/>
+          <a:off x="3390900" y="243840"/>
           <a:ext cx="7239000" cy="15971044"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -571,16 +729,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>73800</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28080</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>123125</xdr:rowOff>
+      <xdr:rowOff>1205</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -609,7 +767,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8120520" y="358140"/>
+          <a:off x="698640" y="236220"/>
           <a:ext cx="2257920" cy="24225185"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -884,11 +1042,498 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D17222-E0C6-4045-A4D3-C29AC3A9A7C4}">
+  <dimension ref="A1:F42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.600000000000001" thickBot="1">
+      <c r="A1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.600000000000001" thickBot="1">
+      <c r="A2" s="15">
+        <v>46017</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D2" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="E2" s="24">
+        <f>SUM(C2:D100)</f>
+        <v>14</v>
+      </c>
+      <c r="F2" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="21">
+        <v>46018</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="F3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="21">
+        <v>46019</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="F4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15">
+        <v>46020</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="19">
+        <v>46021</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="19">
+        <v>46022</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="19">
+        <v>46023</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="19">
+        <v>46024</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="19">
+        <v>46025</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="19">
+        <v>46026</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15">
+        <v>46027</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="15">
+        <v>46028</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="15">
+        <v>46029</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="15">
+        <v>46030</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="15">
+        <v>46031</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="15">
+        <v>46032</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="15">
+        <v>46033</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="15">
+        <v>46034</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="15">
+        <v>46035</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="15">
+        <v>46036</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="15">
+        <v>46037</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="15">
+        <v>46038</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="15">
+        <v>46039</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="15">
+        <v>46040</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="15">
+        <v>46041</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="15">
+        <v>46042</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="15">
+        <v>46043</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="15">
+        <v>46044</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="15">
+        <v>46045</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="15">
+        <v>46046</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="15">
+        <v>46047</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="15">
+        <v>46048</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="15">
+        <v>46049</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="15">
+        <v>46050</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="15">
+        <v>46051</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="15">
+        <v>46052</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="15">
+        <v>46053</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="15">
+        <v>46054</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="15">
+        <v>46055</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="15">
+        <v>46056</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="15">
+        <v>46057</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C19:C20"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1004,12 +1649,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB313B5-95C2-43E5-90AF-5AB46A2C2D85}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1157,12 +1802,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F42F08-99D1-4374-9DCA-6528F6C2F17D}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1277,7 +1922,9 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="B14" s="12"/>
       <c r="C14" s="2" t="s">
         <v>47</v>
@@ -1340,12 +1987,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C103213-AA27-430A-95E4-A1F7A2A485DD}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1365,14 +2012,18 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="12"/>
+      <c r="A2" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="B2" s="12"/>
       <c r="C2" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="B3" s="12"/>
       <c r="C3" s="2" t="s">
         <v>57</v>
@@ -1395,7 +2046,9 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="B6" s="12"/>
       <c r="C6" s="5" t="s">
         <v>60</v>
@@ -1430,14 +2083,18 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8">
-      <c r="A11" s="12"/>
+      <c r="A11" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="B11" s="12"/>
       <c r="C11" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="B12" s="12"/>
       <c r="C12" s="2" t="s">
         <v>66</v>
@@ -1456,12 +2113,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6066A1A-0E65-4F7B-8303-428444A42F39}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1478,21 +2135,27 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8">
-      <c r="A2" s="12"/>
+      <c r="A2" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="B2" s="12"/>
       <c r="C2" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="B3" s="12"/>
       <c r="C3" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8">
-      <c r="A4" s="12"/>
+      <c r="A4" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>71</v>
@@ -1612,12 +2275,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB76DC89-3AF4-4E1B-800A-75F09BD2A2C9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
